--- a/adv/CPU.xlsx
+++ b/adv/CPU.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\5010\Project1\5010_ProgrammingDesignParadigm\adv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886BA8D-59E4-4F5D-805C-973272250509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5260" yWindow="1400" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -49,17 +58,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,36 +85,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -287,119 +311,126 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>65.0</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1">
-        <v>156.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>120.0</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1">
-        <v>381.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>105.0</v>
+        <v>249</v>
       </c>
       <c r="C4" s="1">
-        <v>249.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>120.0</v>
+        <v>594</v>
       </c>
       <c r="C5" s="1">
-        <v>594.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>125.0</v>
+        <v>375</v>
       </c>
       <c r="C6" s="1">
-        <v>375.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>125.0</v>
+        <v>545</v>
       </c>
       <c r="C7" s="1">
-        <v>545.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>125.0</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1">
-        <v>214.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>65.0</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1">
-        <v>149.0</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/adv/CPU.xlsx
+++ b/adv/CPU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\5010\Project1\5010_ProgrammingDesignParadigm\adv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886BA8D-59E4-4F5D-805C-973272250509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03FA320-8185-4A63-9C57-C42084CD1BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="1400" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -53,13 +53,93 @@
   </si>
   <si>
     <t>Intel i5-12400F</t>
+  </si>
+  <si>
+    <t>Deepcool AK620</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noctua NH-L9i</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noctua NH-D15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooler Master Hyper212</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gigabyte RTX 4070</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RTX 3060 Ventus 2X </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radeon RX6700XT CLD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROG STRIX RTX 4090</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radeon RX 6600</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gigabyte RTX 4060 Ti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI B550 GAMING GEN3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI B550-A PRO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gigabyte Z790 AORUS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI MAG B660</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI PRO B760-P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corsair Vengeance 16 GB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corsair Vengeance 32 GB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corsair Vengeance RGB 32 GB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -70,6 +150,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,9 +187,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -321,15 +409,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -340,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -350,8 +442,23 @@
       <c r="C2" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>289</v>
+      </c>
+      <c r="K2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -361,8 +468,23 @@
       <c r="C3" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>329</v>
+      </c>
+      <c r="K3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -372,8 +494,23 @@
       <c r="C4" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>92</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>549</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -383,8 +520,23 @@
       <c r="C5" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>1999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -394,8 +546,17 @@
       <c r="C6" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>209</v>
+      </c>
+      <c r="K6" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -405,8 +566,17 @@
       <c r="C7" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>399</v>
+      </c>
+      <c r="K7" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -417,7 +587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -428,8 +598,87 @@
         <v>65</v>
       </c>
     </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>129</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>119</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>239</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>181</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>149</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
